--- a/실무_엑셀_예제_파일/Chapter02/02-005.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-005.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\3. 피드백_수정\2차 피드백\정리 중인 예제 파일\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94054E6-CADD-4F31-8523-6F082416F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8579AB4-9AEB-41C8-AF2D-9A26279C0810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22680" windowHeight="14472" activeTab="1" xr2:uid="{6146AC79-D5DE-4CB7-B061-3D5691860C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{6146AC79-D5DE-4CB7-B061-3D5691860C62}"/>
   </bookViews>
   <sheets>
     <sheet name="찾기및바꾸기" sheetId="1" r:id="rId1"/>
     <sheet name="조건부서식" sheetId="2" r:id="rId2"/>
     <sheet name="필터" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">필터!$B$4:$G$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -159,7 +162,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,20 +249,34 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -569,26 +592,26 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="13.296875" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:7" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="12.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -608,7 +631,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
@@ -628,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
@@ -648,7 +671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
@@ -668,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
@@ -688,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -708,7 +731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -728,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
@@ -761,29 +784,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5352EDAB-81DC-4E0F-A817-FEE18046B6C8}">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="13.296875" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:9" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:9" ht="12.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -802,11 +827,11 @@
       <c r="G4" s="4">
         <v>44232</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
@@ -825,36 +850,36 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -867,11 +892,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -883,18 +908,18 @@
       <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -907,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -920,14 +945,14 @@
       <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
@@ -952,6 +977,11 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B5:G11">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="성북구">
+      <formula>NOT(ISERROR(SEARCH("성북구",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -960,30 +990,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80FBF31-78D4-455B-AC91-3EA7DF310653}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="13.296875" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:7" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" ht="12.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1003,7 +1033,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1043,7 +1073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1063,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1123,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1144,6 +1174,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B4:G11" xr:uid="{F80FBF31-78D4-455B-AC91-3EA7DF310653}"/>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
